--- a/resource/40.design/440.development/[Saturn]449.crawling/31남성.xlsx
+++ b/resource/40.design/440.development/[Saturn]449.crawling/31남성.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.설계\449.DB 데이터\크롤링 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449.crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="31남성" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>상품명</t>
   </si>
@@ -124,150 +124,6 @@
   </si>
   <si>
     <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002763/1000002763_main_032.jpg</t>
-  </si>
-  <si>
-    <t>노르딕내추럴스 오메가3 레몬향 180 소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg</t>
-  </si>
-  <si>
-    <t>솔가 EFA 1300mg 오메가 3 6 9 120소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg</t>
-  </si>
-  <si>
-    <t>솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg</t>
-  </si>
-  <si>
-    <t>노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg</t>
-  </si>
-  <si>
-    <t>솔가 L-아르기닌 1,000mg 90정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 밀크씨슬 120캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg</t>
-  </si>
-  <si>
-    <t>솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg</t>
-  </si>
-  <si>
-    <t>메가푸드 밸런스 B컴플렉스 60정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg</t>
-  </si>
-  <si>
-    <t>가든오브라이프 비타민코드 B콤플렉스 60베지캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg</t>
-  </si>
-  <si>
-    <t>블루보넷 구연산 칼슘 마그네슘 비타민 D3 180정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002755/1000002755_main_072.jpg</t>
-  </si>
-  <si>
-    <t>[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 L-트립토판 1000mg 60정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/08/33/1000002901/1000002901_main_075.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 밀크씨슬 120캡슐 3병세트</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/02/07/1000002196/1000002196_main_07.jpg</t>
-  </si>
-  <si>
-    <t>솔가 메가솔브 비타민B 컴플렉스 50mg 100정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/12/49/1000003011/1000003011_main_075.jpg</t>
-  </si>
-  <si>
-    <t>블루보넷 구연산 칼슘 마그네슘 비타민 D3 90정</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002756/1000002756_main_055.jpg</t>
-  </si>
-  <si>
-    <t>솔가 비타민B 컴플렉스 100mg 250캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001172/1000001172_main_051.jpg</t>
-  </si>
-  <si>
-    <t>노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 실리마린 밀크씨슬 300mg 200 캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg</t>
-  </si>
-  <si>
-    <t>솔가 이노시톨 500mg 100 베지캡</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000551/1000000551_main_063.jpg</t>
-  </si>
-  <si>
-    <t>블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg</t>
-  </si>
-  <si>
-    <t>컨트리라이프 리버 서포트 팩터 100베지캡슐 (메티오닌 밀크시슬 아티초크)</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000385/1000000385_main_089.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 켈프 600mg 180캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000065/1000000065_main_098.jpg</t>
-  </si>
-  <si>
-    <t>블루보넷 타이로이드 부스터 60식물성캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/04/14//1000002152/1000002152_main_015.jpg</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1382,400 +1240,112 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1">
-        <v>36800</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20070</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1">
-        <v>39800</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1">
-        <v>24600</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1">
-        <v>33600</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1">
-        <v>95400</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1">
-        <v>34000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1">
-        <v>27800</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="1">
-        <v>34800</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1">
-        <v>7120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1">
-        <v>31500</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1">
-        <v>99000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="1">
-        <v>21800</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="1">
-        <v>18900</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="1">
-        <v>49800</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1">
-        <v>38800</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1">
-        <v>29500</v>
-      </c>
-      <c r="C35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1">
-        <v>49800</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="1">
-        <v>31600</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="1">
-        <v>46800</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45000</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1">
-        <v>36800</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1">
-        <v>20070</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>39800</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1">
-        <v>24600</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="1">
-        <v>93200</v>
-      </c>
-      <c r="C44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="1">
-        <v>61800</v>
-      </c>
-      <c r="C45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="1">
-        <v>30900</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1">
-        <v>33600</v>
-      </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="1">
-        <v>7120</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="1">
-        <v>20800</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="1">
-        <v>39600</v>
-      </c>
-      <c r="C50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="1">
-        <v>48700</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="1">
-        <v>15800</v>
-      </c>
-      <c r="C52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="1">
-        <v>24100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
